--- a/Best_ind_9.xlsx
+++ b/Best_ind_9.xlsx
@@ -477,28 +477,28 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4181770281392375</v>
+        <v>0.1108979091082898</v>
       </c>
       <c r="B2" t="n">
-        <v>5.601851991957788</v>
+        <v>9.641375224994912</v>
       </c>
       <c r="C2" t="n">
-        <v>0.494634445589325</v>
+        <v>0.7108853203952331</v>
       </c>
       <c r="D2" t="n">
-        <v>2.373845148722718</v>
+        <v>1.873164565307488</v>
       </c>
       <c r="E2" t="n">
-        <v>1.303658900888713</v>
+        <v>1.036025088616057</v>
       </c>
       <c r="F2" t="n">
-        <v>7.208223077438152</v>
+        <v>4.819815623330141</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2138933567999501</v>
+        <v>0.1749103090704425</v>
       </c>
       <c r="H2" t="n">
-        <v>0.2330918578772962</v>
+        <v>0.1769678577189503</v>
       </c>
     </row>
   </sheetData>
